--- a/data/trans_orig/P51_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P51_2-Edad-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10306</v>
+        <v>10594</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02004509879859625</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06828730934659186</v>
+        <v>0.07019813893020906</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6909</v>
+        <v>6862</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02411379024548883</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08465098775117445</v>
+        <v>0.08407468930804603</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -784,19 +784,19 @@
         <v>4993</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1925</v>
+        <v>1940</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11151</v>
+        <v>14045</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02147317149444596</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008276371105068665</v>
+        <v>0.008343335364035953</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04795130641027336</v>
+        <v>0.06039845559598633</v>
       </c>
     </row>
     <row r="5">
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5454</v>
+        <v>4471</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.006470584726859407</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03613531070115195</v>
+        <v>0.02962251891384107</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5450</v>
+        <v>5966</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0123159411162747</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06676859591992053</v>
+        <v>0.07309973517596292</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6566</v>
+        <v>5992</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008522250223295608</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0282353932134821</v>
+        <v>0.02576652487161029</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>6711</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2773</v>
+        <v>2896</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13351</v>
+        <v>13590</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04446582199752631</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01837351309076053</v>
+        <v>0.01918990655020281</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08846073101653572</v>
+        <v>0.09004983799882459</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6682</v>
+        <v>6390</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0250023647818317</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0818625152280206</v>
+        <v>0.07829210126146327</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -926,19 +926,19 @@
         <v>8752</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4517</v>
+        <v>4157</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15676</v>
+        <v>15725</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03763433030557196</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01942484391283756</v>
+        <v>0.01787455280212953</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06741257161100568</v>
+        <v>0.06762378352147221</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>140208</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>131060</v>
+        <v>132102</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>146059</v>
+        <v>145261</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.929018494477018</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8684003898895457</v>
+        <v>0.8753068967484938</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9677868349687664</v>
+        <v>0.9624943194925489</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>77</v>
@@ -976,19 +976,19 @@
         <v>76606</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>70782</v>
+        <v>70786</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>79657</v>
+        <v>79649</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9385679038564048</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8672165809157534</v>
+        <v>0.8672630483997613</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9759442169444161</v>
+        <v>0.9758482700385978</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>216</v>
@@ -997,19 +997,19 @@
         <v>216814</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>207392</v>
+        <v>205946</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>222941</v>
+        <v>222871</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9323702479766864</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8918519401292809</v>
+        <v>0.8856328024987155</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9587169893547947</v>
+        <v>0.958417986347686</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>3971</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1034</v>
+        <v>1005</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9168</v>
+        <v>9488</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02155373539192582</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.005614117192112531</v>
+        <v>0.005457130631478505</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04976393208768387</v>
+        <v>0.0514962924296573</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12095</v>
+        <v>11359</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04018352016944179</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1273907266769761</v>
+        <v>0.1196448602437713</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -1143,19 +1143,19 @@
         <v>7786</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2926</v>
+        <v>2957</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17654</v>
+        <v>16676</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02788927078426464</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01048023755775673</v>
+        <v>0.01059059300851897</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06323382266096028</v>
+        <v>0.05973266924280472</v>
       </c>
     </row>
     <row r="10">
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5284</v>
+        <v>4433</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004771097629181525</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02868170129219179</v>
+        <v>0.02405959474838875</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7422</v>
+        <v>5774</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01222664734356023</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07817001864974875</v>
+        <v>0.06081883457371039</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6344</v>
+        <v>7051</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007306548234160868</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02272445949267173</v>
+        <v>0.02525592462313495</v>
       </c>
     </row>
     <row r="11">
@@ -1290,19 +1290,19 @@
         <v>179389</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>173526</v>
+        <v>173245</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>182333</v>
+        <v>182410</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9736751669788927</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9418517301485434</v>
+        <v>0.9403277695861816</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9896541603252164</v>
+        <v>0.990074592240585</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>84</v>
@@ -1311,19 +1311,19 @@
         <v>89967</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>81043</v>
+        <v>82395</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>93768</v>
+        <v>93767</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.947589832486998</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8536007658157125</v>
+        <v>0.8678357292318244</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9876245192451363</v>
+        <v>0.987608409117683</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>258</v>
@@ -1332,19 +1332,19 @@
         <v>269356</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>259148</v>
+        <v>259541</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>275105</v>
+        <v>275095</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9648041809815745</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9282401953723058</v>
+        <v>0.9296462950259201</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9853975178104755</v>
+        <v>0.9853596874662958</v>
       </c>
     </row>
     <row r="13">
@@ -1436,19 +1436,19 @@
         <v>2987</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8262</v>
+        <v>7844</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01803284393736126</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005636701313619518</v>
+        <v>0.005508145788141202</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04987763920380483</v>
+        <v>0.04735027307848406</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1457,19 +1457,19 @@
         <v>2983</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8047</v>
+        <v>7391</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04591778750328535</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01465039538631508</v>
+        <v>0.01456506606869614</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1238878052839132</v>
+        <v>0.113787895752697</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -1478,19 +1478,19 @@
         <v>5970</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2051</v>
+        <v>2065</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12239</v>
+        <v>12772</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02588711507250756</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008893769999652501</v>
+        <v>0.00895275609648437</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05307356487147583</v>
+        <v>0.05538480968473131</v>
       </c>
     </row>
     <row r="15">
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4393</v>
+        <v>4515</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.00565654534413542</v>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02651733592477816</v>
+        <v>0.02725707233356848</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5218</v>
+        <v>6783</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01840389256665273</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08033719936215324</v>
+        <v>0.1044301875017205</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>8603</v>
+        <v>7616</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.009247053644889341</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03730729844200088</v>
+        <v>0.03302583129461871</v>
       </c>
     </row>
     <row r="16">
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4781</v>
+        <v>4834</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005716336568683932</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02885914212338115</v>
+        <v>0.02918345896218437</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4779</v>
+        <v>5760</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004106232635568528</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02072247261868914</v>
+        <v>0.02497612253628511</v>
       </c>
     </row>
     <row r="17">
@@ -1641,19 +1641,19 @@
         <v>160780</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>154974</v>
+        <v>154861</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>163812</v>
+        <v>163764</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9705942741498194</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9355471505987144</v>
+        <v>0.9348657492518395</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9888977284649128</v>
+        <v>0.9886072851023032</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>56</v>
@@ -1662,19 +1662,19 @@
         <v>60776</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>55342</v>
+        <v>55245</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>63946</v>
+        <v>63939</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9356783199300619</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8520153623984664</v>
+        <v>0.8505255990469663</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9844818832646072</v>
+        <v>0.984369718834486</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>206</v>
@@ -1683,19 +1683,19 @@
         <v>221556</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>213314</v>
+        <v>213429</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>226497</v>
+        <v>225866</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9607595986470345</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9250176556378747</v>
+        <v>0.9255193613212884</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9821876727377442</v>
+        <v>0.979449063607199</v>
       </c>
     </row>
     <row r="18">
@@ -1787,19 +1787,19 @@
         <v>4463</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14414</v>
+        <v>12244</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03699381858427449</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009384616233425288</v>
+        <v>0.009398818544128336</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1194644913086545</v>
+        <v>0.10147813106729</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7034</v>
+        <v>7865</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06404465394369351</v>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2022234167450903</v>
+        <v>0.2261231658127792</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -1829,19 +1829,19 @@
         <v>6691</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2253</v>
+        <v>2283</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16625</v>
+        <v>14522</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04304695159087039</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01449157238793127</v>
+        <v>0.01468487012289692</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1069579100785719</v>
+        <v>0.09342440075531502</v>
       </c>
     </row>
     <row r="20">
@@ -1952,19 +1952,19 @@
         <v>116192</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>106241</v>
+        <v>108411</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>119523</v>
+        <v>119521</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9630061814157255</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8805355086913456</v>
+        <v>0.89852186893271</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9906153837665748</v>
+        <v>0.9906011814558717</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -1973,7 +1973,7 @@
         <v>32554</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27748</v>
+        <v>26917</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>34782</v>
@@ -1982,7 +1982,7 @@
         <v>0.9359553460563065</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7977765832549097</v>
+        <v>0.7738768341872208</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -1994,19 +1994,19 @@
         <v>148746</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>138812</v>
+        <v>140915</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>153184</v>
+        <v>153154</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9569530484091296</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8930420899214303</v>
+        <v>0.9065755992446851</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9855084276120687</v>
+        <v>0.9853151298771031</v>
       </c>
     </row>
     <row r="23">
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5623</v>
+        <v>5635</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02155202872566797</v>
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1070444559484694</v>
+        <v>0.1072666645727921</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7378</v>
+        <v>5892</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01930252231175532</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1258003738009482</v>
+        <v>0.1004589273631706</v>
       </c>
     </row>
     <row r="25">
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5407</v>
+        <v>6437</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02066420334073064</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1029379979958648</v>
+        <v>0.1225299756569164</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5435</v>
+        <v>6246</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01850736425402289</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09266552645825891</v>
+        <v>0.1064965949606198</v>
       </c>
     </row>
     <row r="27">
@@ -2271,7 +2271,7 @@
         <v>50313</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>45872</v>
+        <v>44839</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>52531</v>
@@ -2280,7 +2280,7 @@
         <v>0.9577837679336014</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8732437937776282</v>
+        <v>0.8535802847653121</v>
       </c>
       <c r="I27" s="6" t="n">
         <v>1</v>
@@ -2305,7 +2305,7 @@
         <v>56434</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>51916</v>
+        <v>50974</v>
       </c>
       <c r="T27" s="5" t="n">
         <v>58652</v>
@@ -2314,7 +2314,7 @@
         <v>0.9621901134342218</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8851531684835025</v>
+        <v>0.8690857747643581</v>
       </c>
       <c r="W27" s="6" t="n">
         <v>1</v>
@@ -2706,19 +2706,19 @@
         <v>3335</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>0</v>
+        <v>1077</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5454</v>
+        <v>5458</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5189673074876745</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0</v>
+        <v>0.167644680045066</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8488063795298272</v>
+        <v>0.8492982334433313</v>
       </c>
     </row>
     <row r="35">
@@ -2863,19 +2863,19 @@
         <v>3091</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6426</v>
+        <v>5349</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4810326925123255</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1511936204701729</v>
+        <v>0.1507017665566686</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>1</v>
+        <v>0.8323553199549341</v>
       </c>
     </row>
     <row r="38">
@@ -2967,19 +2967,19 @@
         <v>15579</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>9070</v>
+        <v>8954</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>26469</v>
+        <v>27537</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.02256291403642706</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01313552299743297</v>
+        <v>0.01296819063861532</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.03833420173433658</v>
+        <v>0.03988145597210689</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>12</v>
@@ -2988,19 +2988,19 @@
         <v>14328</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>7236</v>
+        <v>7256</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>24112</v>
+        <v>23652</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.04979655523020632</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.0251478819277734</v>
+        <v>0.02521838021995134</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.08379868199864487</v>
+        <v>0.08220178155579326</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>25</v>
@@ -3009,19 +3009,19 @@
         <v>29907</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>19886</v>
+        <v>20248</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>44425</v>
+        <v>45117</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.03057358778824634</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.02032902658211087</v>
+        <v>0.02069903097855274</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.04541464455686597</v>
+        <v>0.04612224287471098</v>
       </c>
     </row>
     <row r="40">
@@ -3038,19 +3038,19 @@
         <v>2793</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>7602</v>
+        <v>7457</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.004044458356208609</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.001268042485590738</v>
+        <v>0.001266327633661513</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01101017362830814</v>
+        <v>0.01079957728147238</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>3</v>
@@ -3059,19 +3059,19 @@
         <v>3361</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>9169</v>
+        <v>8307</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01168243998147346</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.00351618705098789</v>
+        <v>0.003498379142848106</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03186756505249355</v>
+        <v>0.02886907469240194</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>6</v>
@@ -3080,19 +3080,19 @@
         <v>6154</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2140</v>
+        <v>2484</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>12509</v>
+        <v>12775</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.006291142098827762</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.002188155435101787</v>
+        <v>0.002539296186228553</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01278802100270727</v>
+        <v>0.01305988534427264</v>
       </c>
     </row>
     <row r="41">
@@ -3109,19 +3109,19 @@
         <v>8743</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3936</v>
+        <v>4036</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>16716</v>
+        <v>15534</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01266273525077658</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.005700854249818096</v>
+        <v>0.005844774255272678</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02421008708209576</v>
+        <v>0.02249782120149239</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>7156</v>
+        <v>7183</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.007092215266974527</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02486838636580882</v>
+        <v>0.02496340159747462</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>11</v>
@@ -3151,19 +3151,19 @@
         <v>10784</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>5621</v>
+        <v>5839</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>18687</v>
+        <v>18564</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01102418762136811</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.005746114244993225</v>
+        <v>0.005969489589997197</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01910316985113243</v>
+        <v>0.01897717179447368</v>
       </c>
     </row>
     <row r="42">
@@ -3180,19 +3180,19 @@
         <v>663357</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>651034</v>
+        <v>650740</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>672101</v>
+        <v>672237</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9607298923565878</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.942882914714661</v>
+        <v>0.9424561080046095</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9733929712126985</v>
+        <v>0.9735902823020773</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>253</v>
@@ -3201,19 +3201,19 @@
         <v>268006</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>256741</v>
+        <v>257243</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>276099</v>
+        <v>276184</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9314287895213457</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.8922808584963461</v>
+        <v>0.8940249168712037</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9595556729352617</v>
+        <v>0.9598519512837533</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>884</v>
@@ -3222,19 +3222,19 @@
         <v>931363</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>915357</v>
+        <v>916200</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>944841</v>
+        <v>943202</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9521110824915578</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9357486259512237</v>
+        <v>0.9366105148070916</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9658893312877455</v>
+        <v>0.9642142456547032</v>
       </c>
     </row>
     <row r="43">
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5942</v>
+        <v>5928</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01401059024201876</v>
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04300757147417439</v>
+        <v>0.04290873367994865</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -3590,19 +3590,19 @@
         <v>3396</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9351</v>
+        <v>8923</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03991861637067586</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01058066517115552</v>
+        <v>0.0104719104343242</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.109922977726873</v>
+        <v>0.1048934202230064</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -3611,19 +3611,19 @@
         <v>5331</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1886</v>
+        <v>1608</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13513</v>
+        <v>12393</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02388354075046419</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008446679644982368</v>
+        <v>0.007202097754559484</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06053649216425414</v>
+        <v>0.05551651142199727</v>
       </c>
     </row>
     <row r="5">
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5597</v>
+        <v>5650</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008070491659974369</v>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04051233191356762</v>
+        <v>0.0408922561528951</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5336</v>
+        <v>6609</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.004995013646247409</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02390524335668899</v>
+        <v>0.02960727706857294</v>
       </c>
     </row>
     <row r="6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6705</v>
+        <v>7787</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01590479844386686</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04853254539094974</v>
+        <v>0.05635995448004454</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -3724,19 +3724,19 @@
         <v>2948</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7746</v>
+        <v>8717</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0346527211597221</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01093956910123664</v>
+        <v>0.01103047581018356</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09105602439257532</v>
+        <v>0.1024765227601028</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -3745,19 +3745,19 @@
         <v>5145</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1993</v>
+        <v>1936</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11544</v>
+        <v>11778</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02304919887756338</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008928208202040383</v>
+        <v>0.008671197153935122</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05171506479202943</v>
+        <v>0.0527621136563586</v>
       </c>
     </row>
     <row r="7">
@@ -3774,19 +3774,19 @@
         <v>132911</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>126482</v>
+        <v>126294</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>136063</v>
+        <v>136093</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.96201411965414</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9154848370069837</v>
+        <v>0.9141204087424046</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9848276496157613</v>
+        <v>0.985044065481346</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>80</v>
@@ -3795,19 +3795,19 @@
         <v>78723</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>72202</v>
+        <v>71908</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>82325</v>
+        <v>82569</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9254286624696021</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8487808775180705</v>
+        <v>0.8453167907559344</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9677750183316063</v>
+        <v>0.9706443540088222</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>201</v>
@@ -3816,19 +3816,19 @@
         <v>211633</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>202715</v>
+        <v>203033</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>217138</v>
+        <v>217325</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.948072246725725</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9081197472709537</v>
+        <v>0.909544299087729</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9727324337954985</v>
+        <v>0.9735687090584507</v>
       </c>
     </row>
     <row r="8">
@@ -3920,19 +3920,19 @@
         <v>2850</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7858</v>
+        <v>7675</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01632111259053491</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.005356208311162802</v>
+        <v>0.005311703539669036</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04499419201028185</v>
+        <v>0.04394253029804683</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4623</v>
+        <v>4715</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.008180250480494564</v>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04023288282612795</v>
+        <v>0.04103972920287056</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -3962,19 +3962,19 @@
         <v>3790</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8610</v>
+        <v>9402</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01309074149106118</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.003254580937058443</v>
+        <v>0.003256177476645082</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02973618660012902</v>
+        <v>0.0324719491911501</v>
       </c>
     </row>
     <row r="10">
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4528</v>
+        <v>3757</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008087534533682085</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03940890699319844</v>
+        <v>0.03269957345652645</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4678</v>
+        <v>5210</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003209210212685064</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01615712169995245</v>
+        <v>0.01799507657881848</v>
       </c>
     </row>
     <row r="11">
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7053</v>
+        <v>8142</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01241323383325713</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04038226225636744</v>
+        <v>0.04662013730334758</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6997</v>
+        <v>7356</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.007487545216506363</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0241640550398598</v>
+        <v>0.02540514220807098</v>
       </c>
     </row>
     <row r="12">
@@ -4117,19 +4117,19 @@
         <v>169632</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>164067</v>
+        <v>163035</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>172757</v>
+        <v>172770</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.971265653576208</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.939403449274149</v>
+        <v>0.9334933823127606</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9891639746930478</v>
+        <v>0.9892381830077516</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>118</v>
@@ -4138,7 +4138,7 @@
         <v>113025</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>109246</v>
+        <v>109198</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>114894</v>
@@ -4147,7 +4147,7 @@
         <v>0.9837322149858233</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9508444278092503</v>
+        <v>0.950421813090606</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -4159,19 +4159,19 @@
         <v>282655</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>276348</v>
+        <v>275862</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>286725</v>
+        <v>286459</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9762125030797474</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9544290680375908</v>
+        <v>0.9527505162603582</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9902668008398751</v>
+        <v>0.9893483965169004</v>
       </c>
     </row>
     <row r="13">
@@ -4263,19 +4263,19 @@
         <v>5717</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12645</v>
+        <v>12610</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03178086472647255</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01115137715821919</v>
+        <v>0.01111328718841775</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07029991773467177</v>
+        <v>0.0701039656979222</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -4284,19 +4284,19 @@
         <v>6582</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2755</v>
+        <v>2757</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12389</v>
+        <v>12725</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07765600233231504</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03250445407245453</v>
+        <v>0.0325295937678432</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1461609941502148</v>
+        <v>0.1501273033350273</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -4305,19 +4305,19 @@
         <v>12299</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6821</v>
+        <v>6798</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>20995</v>
+        <v>20986</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04647417074057955</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02577654799210341</v>
+        <v>0.02568986260458923</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07933420280862552</v>
+        <v>0.07930317734462085</v>
       </c>
     </row>
     <row r="15">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8010</v>
+        <v>9044</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01298411451134417</v>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04453327062688291</v>
+        <v>0.05028172835404144</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4487</v>
+        <v>3691</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01063689846596245</v>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05293610280019477</v>
+        <v>0.04354578011715585</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -4423,19 +4423,19 @@
         <v>3237</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>903</v>
+        <v>957</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8903</v>
+        <v>9850</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01223232682337387</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003413435681417367</v>
+        <v>0.003615762468698373</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03364115491619665</v>
+        <v>0.03722174091644887</v>
       </c>
     </row>
     <row r="17">
@@ -4452,19 +4452,19 @@
         <v>171823</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>164181</v>
+        <v>163761</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>176549</v>
+        <v>176290</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9552350207621833</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9127494203564567</v>
+        <v>0.9104175349346997</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.981510329390796</v>
+        <v>0.9800712522093683</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>79</v>
@@ -4473,19 +4473,19 @@
         <v>77276</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>71124</v>
+        <v>70739</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>81182</v>
+        <v>81725</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9117070992017225</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8391174609511984</v>
+        <v>0.8345816958381729</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9577914703601319</v>
+        <v>0.9641948627541701</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>240</v>
@@ -4494,19 +4494,19 @@
         <v>249099</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>240698</v>
+        <v>240373</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>256003</v>
+        <v>255325</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9412935024360466</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9095467157892965</v>
+        <v>0.9083194902886806</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9673796968745714</v>
+        <v>0.96481966812515</v>
       </c>
     </row>
     <row r="18">
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6965</v>
+        <v>6162</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01472353422961616</v>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05117634936921009</v>
+        <v>0.04527078451437264</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6718</v>
+        <v>6183</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03134039955765115</v>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.106167251294305</v>
+        <v>0.09772152349502614</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -4640,19 +4640,19 @@
         <v>3987</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10046</v>
+        <v>10120</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01999715160796477</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005053500501650018</v>
+        <v>0.005006224858730895</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05038486890563805</v>
+        <v>0.05075689887747967</v>
       </c>
     </row>
     <row r="20">
@@ -4763,7 +4763,7 @@
         <v>134100</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>129139</v>
+        <v>129942</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>136104</v>
@@ -4772,7 +4772,7 @@
         <v>0.9852764657703839</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9488236506307898</v>
+        <v>0.9547292154856273</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -4784,7 +4784,7 @@
         <v>61293</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>56558</v>
+        <v>57093</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>63276</v>
@@ -4793,7 +4793,7 @@
         <v>0.9686596004423489</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8938327487056948</v>
+        <v>0.9022784765049737</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -4805,19 +4805,19 @@
         <v>195393</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>189334</v>
+        <v>189260</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>198372</v>
+        <v>198382</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9800028483920352</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9496151310943621</v>
+        <v>0.9492431011225201</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.99494649949835</v>
+        <v>0.9949937751412691</v>
       </c>
     </row>
     <row r="23">
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4583</v>
+        <v>6325</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0162477277982463</v>
@@ -4921,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06720020423159899</v>
+        <v>0.09274451262870864</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6739</v>
+        <v>6965</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1026756389557524</v>
@@ -4942,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3096262026586337</v>
+        <v>0.3200079124778025</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -4951,19 +4951,19 @@
         <v>3343</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1076</v>
+        <v>1059</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8836</v>
+        <v>9031</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03715744320669354</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01196264858685361</v>
+        <v>0.01176579302318546</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09821616866526886</v>
+        <v>0.1003820726983569</v>
       </c>
     </row>
     <row r="25">
@@ -5074,7 +5074,7 @@
         <v>67093</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>63618</v>
+        <v>61876</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>68201</v>
@@ -5083,7 +5083,7 @@
         <v>0.9837522722017537</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.932799795768401</v>
+        <v>0.9072554873712907</v>
       </c>
       <c r="I27" s="6" t="n">
         <v>1</v>
@@ -5095,7 +5095,7 @@
         <v>19531</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>15027</v>
+        <v>14801</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>21766</v>
@@ -5104,7 +5104,7 @@
         <v>0.8973243610442476</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6903737973413666</v>
+        <v>0.6799920875221979</v>
       </c>
       <c r="P27" s="6" t="n">
         <v>1</v>
@@ -5116,19 +5116,19 @@
         <v>86623</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>81130</v>
+        <v>80935</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>88890</v>
+        <v>88907</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9628425567933064</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9017838313347311</v>
+        <v>0.8996179273016431</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9880373514131464</v>
+        <v>0.9882342069768145</v>
       </c>
     </row>
     <row r="28">
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5064</v>
+        <v>4935</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05532008635898045</v>
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2698855558028521</v>
+        <v>0.2630394542749585</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5064</v>
+        <v>4935</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05532008635898045</v>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2698855558028521</v>
+        <v>0.2630394542749585</v>
       </c>
     </row>
     <row r="30">
@@ -5365,7 +5365,7 @@
         <v>17725</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>13699</v>
+        <v>13828</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>18763</v>
@@ -5374,7 +5374,7 @@
         <v>0.9446799136410196</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7301144441971472</v>
+        <v>0.7369605457250452</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -5395,7 +5395,7 @@
         <v>17725</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>13699</v>
+        <v>13828</v>
       </c>
       <c r="T32" s="5" t="n">
         <v>18763</v>
@@ -5404,7 +5404,7 @@
         <v>0.9446799136410196</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7301144441971472</v>
+        <v>0.7369605457250452</v>
       </c>
       <c r="W32" s="6" t="n">
         <v>1</v>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>3312</v>
+        <v>3343</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1901740523128886</v>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.780923255020546</v>
+        <v>0.7882508351970562</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3314</v>
+        <v>3620</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1443335438054551</v>
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5931387496487097</v>
+        <v>0.6477999866900777</v>
       </c>
     </row>
     <row r="35">
@@ -5644,7 +5644,7 @@
         <v>3434</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>929</v>
+        <v>898</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>4241</v>
@@ -5653,7 +5653,7 @@
         <v>0.8098259476871114</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2190767449794546</v>
+        <v>0.2117491648029438</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1</v>
@@ -5678,7 +5678,7 @@
         <v>4781</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2274</v>
+        <v>1968</v>
       </c>
       <c r="T37" s="5" t="n">
         <v>5588</v>
@@ -5687,7 +5687,7 @@
         <v>0.855666456194545</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4068612503512902</v>
+        <v>0.352200013309922</v>
       </c>
       <c r="W37" s="6" t="n">
         <v>1</v>
@@ -5782,19 +5782,19 @@
         <v>15459</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>9029</v>
+        <v>8652</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>24610</v>
+        <v>24916</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.02147155617711144</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01254042556136009</v>
+        <v>0.01201688388150848</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.03418152233351046</v>
+        <v>0.03460600799849149</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>15</v>
@@ -5803,19 +5803,19 @@
         <v>15136</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>8518</v>
+        <v>8285</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>23981</v>
+        <v>25037</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.04078484117717959</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.02295364968821854</v>
+        <v>0.02232445119182053</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.06462110806889715</v>
+        <v>0.06746677061367889</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>30</v>
@@ -5824,19 +5824,19 @@
         <v>30595</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>20644</v>
+        <v>20447</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>42981</v>
+        <v>42788</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.02804044069960105</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.01892062692183422</v>
+        <v>0.01873956625332608</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.03939245783090471</v>
+        <v>0.0392156107685268</v>
       </c>
     </row>
     <row r="40">
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>6220</v>
+        <v>6663</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.001548642211853906</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0086392698589074</v>
+        <v>0.009253775466407271</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>4939</v>
+        <v>5497</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.002503865902399354</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01330791578598149</v>
+        <v>0.01481329954052229</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2</v>
@@ -5898,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>7019</v>
+        <v>6621</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001873535367850789</v>
@@ -5907,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.006432564072608599</v>
+        <v>0.006068190581464113</v>
       </c>
     </row>
     <row r="41">
@@ -5924,19 +5924,19 @@
         <v>6701</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2341</v>
+        <v>2464</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>15076</v>
+        <v>14380</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.009306871106859516</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.003250759346658068</v>
+        <v>0.00342216037764511</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02093974303039118</v>
+        <v>0.01997222947010663</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>4</v>
@@ -5945,19 +5945,19 @@
         <v>3849</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>9751</v>
+        <v>8903</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01037256743198042</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.002678201704657663</v>
+        <v>0.002664311752428165</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02627443916318788</v>
+        <v>0.02398951577094148</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>10</v>
@@ -5966,19 +5966,19 @@
         <v>10550</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>5264</v>
+        <v>5410</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>18187</v>
+        <v>18931</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.009669338501491554</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.004824640205985623</v>
+        <v>0.004958353069407512</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01666882847892996</v>
+        <v>0.01735041849102039</v>
       </c>
     </row>
     <row r="42">
@@ -5995,19 +5995,19 @@
         <v>696719</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>686055</v>
+        <v>685520</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>705396</v>
+        <v>705471</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9676729305041751</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9528623611089035</v>
+        <v>0.9521194647652205</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.979725335235871</v>
+        <v>0.9798294165872821</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>348</v>
@@ -6016,19 +6016,19 @@
         <v>351194</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>341228</v>
+        <v>341956</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>358901</v>
+        <v>358907</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9463387254884407</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.91948518277821</v>
+        <v>0.9214464586472779</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9671056458100145</v>
+        <v>0.967122324480654</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>991</v>
@@ -6037,19 +6037,19 @@
         <v>1047913</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1034016</v>
+        <v>1035009</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1059135</v>
+        <v>1059876</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9604166854310566</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.947680524106963</v>
+        <v>0.9485907300687869</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9707024795278002</v>
+        <v>0.9713815377007544</v>
       </c>
     </row>
     <row r="43">
